--- a/MJKrigingGrid.xlsx
+++ b/MJKrigingGrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APhDWorks\SubsidenceAnalysisSejong\GeotechEng_Conference\GINN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA764EC-A03E-4289-A695-92FA2EBFFC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E13AD7-69D6-4151-82B2-988F02BE02EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B2FAA4D7-C1B1-46EB-88BE-3372F438EA19}"/>
   </bookViews>
@@ -419,15 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BD2501-30D9-4AA8-8D24-D45B7309DEE3}">
-  <dimension ref="A1:F3111"/>
+  <dimension ref="A1:H3111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>190749.30608056299</v>
       </c>
@@ -464,8 +464,12 @@
         <f>MAX(B2:B3111)</f>
         <v>280801.27405859099</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>SQRT((E2-E3)^2+(F2-F3)^2)</f>
+        <v>4720.1694884823783</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>190749.30608056299</v>
       </c>
@@ -489,7 +493,7 @@
         <v>277001.27405859099</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>190749.30608056299</v>
       </c>
@@ -505,7 +509,7 @@
         <v>0.23684210526315788</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>190749.30608056299</v>
       </c>
@@ -521,7 +525,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>190799.30608056299</v>
       </c>
@@ -537,7 +541,7 @@
         <v>0.13157894736842105</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>190799.30608056299</v>
       </c>
@@ -553,7 +557,7 @@
         <v>0.14473684210526316</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>190799.30608056299</v>
       </c>
@@ -569,7 +573,7 @@
         <v>0.15789473684210525</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>190799.30608056299</v>
       </c>
@@ -585,7 +589,7 @@
         <v>0.17105263157894737</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>190799.30608056299</v>
       </c>
@@ -601,7 +605,7 @@
         <v>0.18421052631578946</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>190799.30608056299</v>
       </c>
@@ -617,7 +621,7 @@
         <v>0.19736842105263158</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>190799.30608056299</v>
       </c>
@@ -633,7 +637,7 @@
         <v>0.21052631578947367</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>190799.30608056299</v>
       </c>
@@ -649,7 +653,7 @@
         <v>0.22368421052631579</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>190799.30608056299</v>
       </c>
@@ -665,7 +669,7 @@
         <v>0.23684210526315788</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>190799.30608056299</v>
       </c>
@@ -681,7 +685,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>190799.30608056299</v>
       </c>
